--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1631700.676508164</v>
+        <v>-1584434.396789643</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10788004.35821955</v>
+        <v>10790558.31863922</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>365.4545340960638</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>231.722327412953</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>288.4057301444022</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>18.82078715002165</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>187.3150328718698</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,19 +902,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>235.5098892894945</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>334.3778363754014</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1057,10 +1057,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,25 +1102,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>41.68856785580429</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>31.68796577450341</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>75.79237968869509</v>
+        <v>60.69092040857829</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>7.264602967362461</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1345,7 +1345,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>135.7646902895509</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1370,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>120.4034648723662</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>109.4519776932614</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573351</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556936</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>43.77283765622057</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>116.2712455521792</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1844,25 +1844,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,16 +1901,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="18">
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>26.41040541581629</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855527</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2081,25 +2081,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2138,16 +2138,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2245,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>43.70143389869419</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,25 +2476,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>126.7641785672301</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,13 +2716,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>90.59002589087441</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>101.7706336613758</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3187,7 +3187,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D34" t="n">
         <v>147.9835025317452</v>
@@ -3202,10 +3202,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277814</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934469</v>
+        <v>4.967932742933594</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3253,7 +3253,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3424,7 +3424,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D37" t="n">
         <v>147.9835025317452</v>
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934469</v>
+        <v>4.967932742934483</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>270.0031426724685</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.111430947275949e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3661,7 +3661,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934469</v>
+        <v>4.967932742933594</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>270.0031426724685</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.111430947275949e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432345</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934469</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,7 +4135,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934483</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>755.2519934708256</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="C2" t="n">
-        <v>755.2519934708256</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="D2" t="n">
-        <v>723.3826126856742</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="E2" t="n">
-        <v>693.6482718843735</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>669.8212463339853</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>268.4234149572491</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>1477.116202953456</v>
+        <v>846.059151609114</v>
       </c>
       <c r="X2" t="n">
-        <v>1185.797283615676</v>
+        <v>426.9166881884247</v>
       </c>
       <c r="Y2" t="n">
-        <v>777.5111599153294</v>
+        <v>426.9166881884247</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4404,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.0837817107156</v>
+        <v>549.0904269551045</v>
       </c>
       <c r="C4" t="n">
-        <v>473.0837817107156</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="D4" t="n">
-        <v>307.2057889122383</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E4" t="n">
-        <v>307.2057889122383</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,49 +4489,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1164.348475529303</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W4" t="n">
-        <v>892.3220711155946</v>
+        <v>794.482181621692</v>
       </c>
       <c r="X4" t="n">
-        <v>892.3220711155946</v>
+        <v>549.0904269551045</v>
       </c>
       <c r="Y4" t="n">
-        <v>664.9024004297028</v>
+        <v>549.0904269551045</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>763.0287521501522</v>
+        <v>863.7460391501077</v>
       </c>
       <c r="C5" t="n">
-        <v>728.9266833739796</v>
+        <v>829.643970373935</v>
       </c>
       <c r="D5" t="n">
-        <v>697.0573025888282</v>
+        <v>797.7745895887836</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>768.0402487874828</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>340.1728191966905</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>340.1728191966905</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.04266463990675</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1112.375769149668</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>1189.145706210983</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1189.145706210983</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1189.145706210983</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1815.640912640686</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640686</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599281</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2311.226536225377</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2052.004233542393</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>1714.24884326421</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>1309.393388675243</v>
       </c>
       <c r="X5" t="n">
-        <v>1597.614446335406</v>
+        <v>1294.291329294958</v>
       </c>
       <c r="Y5" t="n">
-        <v>1189.32832263506</v>
+        <v>886.0052055946114</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>1374.225746864822</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>1267.769285701464</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>1172.678996848018</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>1078.558582174971</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>995.1747437911329</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>909.7896540573167</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>868.0540018735292</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>894.1176750339866</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>894.1176750339866</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>894.1176750339866</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>894.1176750339866</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>894.1176750339866</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>894.1176750339866</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1246.886840196219</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1873.382046625923</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>2414.120985257998</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>2467.838325800721</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>2337.659682131323</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>2161.323135131291</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1962.20561719329</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>1776.882862926484</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>1622.015427165364</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>1495.529647944585</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>637.4636583561241</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>464.9019468393491</v>
+        <v>957.1223243621531</v>
       </c>
       <c r="D7" t="n">
-        <v>464.9019468393491</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>621.486327814413</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>444.7792737761692</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>279.1879988019969</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.2858244923714</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.2055604317366</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.9640150028722</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>830.1738967708333</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1289.657763951746</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1731.916567109391</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.585816335172</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2499.092710305514</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2509.87594205771</v>
       </c>
       <c r="S7" t="n">
-        <v>1633.655944284977</v>
+        <v>2350.634573355706</v>
       </c>
       <c r="T7" t="n">
-        <v>1633.655944284977</v>
+        <v>2104.755126934162</v>
       </c>
       <c r="U7" t="n">
-        <v>1633.655944284977</v>
+        <v>1826.322126187267</v>
       </c>
       <c r="V7" t="n">
-        <v>1346.700436155407</v>
+        <v>1826.322126187267</v>
       </c>
       <c r="W7" t="n">
-        <v>1074.674031741699</v>
+        <v>1794.314079950395</v>
       </c>
       <c r="X7" t="n">
-        <v>829.2822770751113</v>
+        <v>1548.922325283807</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.2822770751113</v>
+        <v>1321.502654597915</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>956.3642220164563</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C8" t="n">
-        <v>922.2621532402836</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D8" t="n">
-        <v>890.3927724551322</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1620.625470798907</v>
+        <v>2525.1049926066</v>
       </c>
       <c r="U8" t="n">
-        <v>1361.403168115924</v>
+        <v>2525.1049926066</v>
       </c>
       <c r="V8" t="n">
-        <v>998.7862180497506</v>
+        <v>2525.1049926066</v>
       </c>
       <c r="W8" t="n">
-        <v>997.9711675011879</v>
+        <v>2524.289942058037</v>
       </c>
       <c r="X8" t="n">
-        <v>982.8691081209026</v>
+        <v>2509.187882677752</v>
       </c>
       <c r="Y8" t="n">
-        <v>978.6233884609601</v>
+        <v>2504.942163017809</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.5528969494776</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>350.5528969494776</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>350.5528969494776</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>350.5528969494776</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="F10" t="n">
-        <v>173.8458429112338</v>
+        <v>226.3304742981165</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>60.73919932394418</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1292.062614956869</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1005.1071068273</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>733.0807024135913</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>487.6889477470038</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.5528969494776</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1903.383651232096</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1465.241178415519</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1465.241178415519</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1031.466433573814</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>603.5990039830217</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>202.2011726062855</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904692</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>80.16472174618686</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>80.16472174618686</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>80.16472174618686</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M11" t="n">
-        <v>492.0552635849266</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>1484.093695193989</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2464.273361764295</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3292.583236597691</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.082022556286</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309343</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.58421349318</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3924.58421349318</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3924.58421349318</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3561.967263427006</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3157.111808838039</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2737.96934541735</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2329.683221717004</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374797</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741219</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206752</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476289</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637905</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299744</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>80.16472174618686</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>80.16472174618686</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>80.16472174618686</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>80.16472174618686</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>80.16472174618686</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1072.203153355249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1072.203153355249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1202.66554459292</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1743.404483224996</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380221</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172428</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>816.9245533456522</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>644.3628418288771</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>478.4848490303997</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>308.726845281137</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>308.726845281137</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>308.726845281137</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>168.8246709715115</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108767</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820123</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2564.848957128842</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2318.969510707291</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2040.536509960397</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1753.581001830827</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1481.554597417119</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1236.162842750531</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1008.743172064639</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5273,55 +5273,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707797</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L14" t="n">
-        <v>306.1208027766308</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987182</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423629</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993935</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.389162827331</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785926</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5346,31 +5346,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>982.1554751127505</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C16" t="n">
-        <v>809.5937635959755</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D16" t="n">
-        <v>643.7157707974982</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>473.9577670482354</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>473.9577670482354</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>308.3664920740631</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5501,55 +5501,55 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423629</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
@@ -5558,7 +5558,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5583,34 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>611.1385207805145</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>434.4314667422707</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>268.8401917680984</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>128.9380174584729</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354743</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.59898000661</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774571</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955484</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113129</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309252</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471581</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050036</v>
       </c>
       <c r="U19" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303141</v>
       </c>
       <c r="V19" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289577</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>936.6111322289577</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987182</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5820,31 +5820,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>451.897152078511</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>451.897152078511</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>286.3058771043387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>146.4037027947132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6063,28 +6063,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>624.4588635952861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>624.4588635952861</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6227,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2009.667423945775</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3135.398407382222</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6300,31 +6300,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>566.7757676570886</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>566.7757676570886</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>617.7751448769883</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>448.0171411277256</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6470,19 +6470,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4432.283495978682</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4978.782281937277</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6537,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6698,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>350.7514028354348</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>1185.101694793613</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2260.161661046472</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6774,31 +6774,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6835,19 +6835,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886287</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030275</v>
+        <v>760.880759503028</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666409</v>
+        <v>607.5224631666414</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412733</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799771</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
         <v>174.5210820832282</v>
@@ -6856,7 +6856,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708294</v>
+        <v>204.9138786708293</v>
       </c>
       <c r="K34" t="n">
         <v>495.7456864773249</v>
@@ -6880,25 +6880,25 @@
         <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2699.64750088558</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2470.167761876911</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542891</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1937.578667826199</v>
       </c>
       <c r="W34" t="n">
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571654</v>
+        <v>1452.959923571655</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J35" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>532.8213911287357</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>1607.881357381595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
         <v>2835.290740278742</v>
@@ -7008,31 +7008,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J36" t="n">
-        <v>422.1250286420301</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>422.1250286420301</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>422.1250286420301</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>629.8320772419853</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>629.8320772419853</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
         <v>1643.633687060287</v>
@@ -7072,16 +7072,16 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080657</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463114</v>
       </c>
       <c r="G37" t="n">
         <v>293.3294123850158</v>
@@ -7090,7 +7090,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7111,10 +7111,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
         <v>2837.795025579745</v>
@@ -7135,7 +7135,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
         <v>1237.245823703677</v>
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206712</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803011</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.138034390332</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961503</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835866</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197266</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581899</v>
       </c>
       <c r="I38" t="n">
         <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581786</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>931.9169956339958</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1068.877912614995</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2225.925747825545</v>
+        <v>2523.346856428596</v>
       </c>
       <c r="N38" t="n">
-        <v>3351.656731261992</v>
+        <v>2523.346856428596</v>
       </c>
       <c r="O38" t="n">
-        <v>4331.836397832299</v>
+        <v>3503.526522998903</v>
       </c>
       <c r="P38" t="n">
         <v>4331.836397832299</v>
@@ -7202,22 +7202,22 @@
         <v>4811.083017387607</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.415497673522</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403415</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574027</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566214</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278743</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>1111.36831349412</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
-        <v>1220.067526522551</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q39" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R39" t="n">
         <v>1760.806465154627</v>
@@ -7312,10 +7312,10 @@
         <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
         <v>442.520979946312</v>
@@ -7351,25 +7351,25 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U40" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206712</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803011</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390332</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961503</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835866</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197266</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581899</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7418,43 +7418,43 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428596</v>
       </c>
       <c r="N41" t="n">
-        <v>3334.372458245845</v>
+        <v>2523.346856428596</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3503.526522998903</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4331.836397832299</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673522</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403415</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574027</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566214</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278743</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J42" t="n">
-        <v>422.1250286420301</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>422.1250286420301</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>422.1250286420301</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>422.1250286420301</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>422.1250286420301</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>422.1250286420301</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463113</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882658</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,13 +7585,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7600,7 +7600,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7652,46 +7652,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="N44" t="n">
-        <v>3567.96263277622</v>
+        <v>2492.90266652336</v>
       </c>
       <c r="O44" t="n">
-        <v>3880.871244204439</v>
+        <v>3473.082333093667</v>
       </c>
       <c r="P44" t="n">
-        <v>4709.181119037835</v>
+        <v>4301.392207927063</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4847.890993885658</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581783</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>1111.36831349412</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
-        <v>1111.36831349412</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
         <v>1643.633687060287</v>
@@ -7786,10 +7786,10 @@
         <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7822,16 +7822,16 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281949</v>
@@ -7840,10 +7840,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,28 +8052,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.54539097102474</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>356.332490062861</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>32.5263162089127</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,25 +8453,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623634</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827336</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1002.059021827336</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>131.7801931693648</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463143</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>257.101999686302</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9237,22 +9237,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>531.8762684426505</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>257.1019996863001</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,31 +9711,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9875,16 +9875,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>401.1029595648663</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,7 +9893,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9948,19 +9948,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>469.2069973599081</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10133,7 +10133,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>135.6158905067714</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>251.0005682471264</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,7 +10355,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10422,16 +10422,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>753.8499336302466</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,31 +10659,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>209.8050995959143</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>138.3443605868675</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>81.9345526149732</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,13 +11066,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>81.9345526149732</v>
       </c>
       <c r="N41" t="n">
-        <v>901.152332228356</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>687.6461816022033</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>316.0693044729487</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>30.75170697498561</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>56.58204068399488</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>54.51652559826291</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>343.5043854141555</v>
       </c>
     </row>
     <row r="3">
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>156.1191963478397</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>165.8353881388497</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-8.119939711684393e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>48.19697732172189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325318026</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22.23190701435001</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>61.36294431725513</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>139.5921776627212</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>44.07191583437722</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>48.17580493063124</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>84.34995760698692</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>8.890665981198254e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.890665981198254e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>863104.3760427552</v>
+        <v>715924.1611837344</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>943250.5665970083</v>
+        <v>949666.1388634046</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>943250.5665970083</v>
+        <v>950733.4678316087</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795436.6690827</v>
+        <v>949145.9521760629</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>949145.9521760626</v>
+        <v>949145.9521760629</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>949145.9521760629</v>
+        <v>949145.9521760631</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>949145.9521760631</v>
+        <v>949145.9521760629</v>
       </c>
     </row>
     <row r="10">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12242.14400372032</v>
+        <v>10109.09741156059</v>
       </c>
       <c r="C2" t="n">
         <v>13403.68299726021</v>
       </c>
       <c r="D2" t="n">
-        <v>13403.68299726022</v>
+        <v>13403.68299726021</v>
       </c>
       <c r="E2" t="n">
-        <v>11038.39301127409</v>
+        <v>13171.43960343381</v>
       </c>
       <c r="F2" t="n">
         <v>13171.43960343381</v>
@@ -26347,10 +26347,10 @@
         <v>13403.68299726022</v>
       </c>
       <c r="N2" t="n">
-        <v>13403.68299726022</v>
+        <v>13403.6829972602</v>
       </c>
       <c r="O2" t="n">
-        <v>13403.68299726021</v>
+        <v>13403.6829972602</v>
       </c>
       <c r="P2" t="n">
         <v>13403.68299726021</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.149392462</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106442</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725245</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.9057047184</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338191</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099789</v>
+        <v>21768.74196143537</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978836</v>
+        <v>137577.7007378521</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341177</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161045.8044757662</v>
+        <v>112346.893857459</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146256.0480753018</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>34463.30233088321</v>
+        <v>41122.95192991273</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991262</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991264</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991268</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>46465.30974654599</v>
+        <v>46465.30974654597</v>
       </c>
       <c r="M4" t="n">
-        <v>55396.20108640301</v>
+        <v>55396.20108640299</v>
       </c>
       <c r="N4" t="n">
-        <v>55396.20108640301</v>
+        <v>55396.20108640294</v>
       </c>
       <c r="O4" t="n">
-        <v>55396.20108640301</v>
+        <v>55396.20108640296</v>
       </c>
       <c r="P4" t="n">
         <v>55396.20108640301</v>
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295553</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710201</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608973</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608973</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-350419.7492689782</v>
+        <v>-304183.3438014006</v>
       </c>
       <c r="C6" t="n">
-        <v>-233585.6381957754</v>
+        <v>-272324.7796734591</v>
       </c>
       <c r="D6" t="n">
-        <v>-233585.6381957754</v>
+        <v>-210968.8920044664</v>
       </c>
       <c r="E6" t="n">
-        <v>-256857.4679192356</v>
+        <v>-288048.0844927039</v>
       </c>
       <c r="F6" t="n">
-        <v>-184808.6566369897</v>
+        <v>-105692.9752716541</v>
       </c>
       <c r="G6" t="n">
-        <v>-105669.7509322714</v>
+        <v>-105692.9752716541</v>
       </c>
       <c r="H6" t="n">
-        <v>-105669.7509322714</v>
+        <v>-105692.9752716541</v>
       </c>
       <c r="I6" t="n">
-        <v>-105669.7509322714</v>
+        <v>-105692.9752716541</v>
       </c>
       <c r="J6" t="n">
-        <v>-216684.2162772616</v>
+        <v>-216707.4406166442</v>
       </c>
       <c r="K6" t="n">
-        <v>-105669.7509322714</v>
+        <v>-159361.302335036</v>
       </c>
       <c r="L6" t="n">
-        <v>-125133.3535585443</v>
+        <v>-133913.5272489818</v>
       </c>
       <c r="M6" t="n">
-        <v>-246866.5542131161</v>
+        <v>-255085.8335530846</v>
       </c>
       <c r="N6" t="n">
-        <v>-185157.3330886443</v>
+        <v>-117508.1328152325</v>
       </c>
       <c r="O6" t="n">
         <v>-117508.1328152325</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="3">
@@ -26790,22 +26790,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179801</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977247</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072314</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574098</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179801</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977247</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702091</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="N4" t="n">
-        <v>276.20148155741</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179801</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977247</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072314</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574098</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>126.5453086420802</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>60.69887704918762</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>81.99110749770156</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,19 +27622,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>193.9271081037932</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>24.61294419011028</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27777,10 +27777,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>115.960387159179</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>237.618174595068</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>142.0741751669967</v>
+        <v>157.1756344471135</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>131.2385495991668</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>89.38078368948189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-7.895555166631037e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791302861</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791302861</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874805</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,28 +34772,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34857,16 +34857,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34875,7 +34875,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.54539097102474</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,7 +35009,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>356.332490062861</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>32.5263162089127</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623634</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827336</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1002.059021827336</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>131.7801931693648</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463143</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>257.101999686302</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908559</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>531.8762684426505</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>257.1019996863001</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36595,16 +36595,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>401.1029595648663</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36613,7 +36613,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>469.2069973599081</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,22 +36838,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>135.6158905067714</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,16 +36923,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>251.0005682471264</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,16 +37160,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>753.8499336302466</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>209.8050995959143</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37479,7 +37479,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
         <v>186.127402120901</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>138.3443605868675</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>81.9345526149732</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,16 +37634,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>81.9345526149732</v>
       </c>
       <c r="N41" t="n">
-        <v>901.152332228356</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>687.6461816022033</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37953,7 +37953,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
         <v>186.127402120901</v>
@@ -38020,7 +38020,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,16 +38029,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>316.0693044729487</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>30.75170697498561</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,13 +38108,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38190,7 +38190,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552551</v>
       </c>
       <c r="Q46" t="n">
         <v>186.127402120901</v>
